--- a/docs/benchmark.xlsx
+++ b/docs/benchmark.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITMO\FAMLINN\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CB4112-8F52-4282-9F25-4C8A99ACB0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1125236A-91BD-4CC2-8820-DDC22E7008DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>№</t>
   </si>
@@ -128,6 +129,18 @@
   </si>
   <si>
     <t>282 +- 26</t>
+  </si>
+  <si>
+    <t>PyTorch</t>
+  </si>
+  <si>
+    <t>FAMLINN</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Соотношение занимаемой памяти</t>
   </si>
 </sst>
 </file>
@@ -187,12 +200,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -477,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40:G40"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1248,4 +1272,109 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF52FE3B-320D-4CA1-A61D-CE622A9E1329}">
+  <dimension ref="B2:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" customWidth="1"/>
+    <col min="5" max="5" width="14.6328125" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="8"/>
+      <c r="C3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5">
+        <v>252167</v>
+      </c>
+      <c r="D4" s="5">
+        <v>31123925</v>
+      </c>
+      <c r="E4" s="5">
+        <v>178868701</v>
+      </c>
+      <c r="F4" s="5">
+        <v>574801813</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="5">
+        <v>260364</v>
+      </c>
+      <c r="D5" s="5">
+        <v>31169956</v>
+      </c>
+      <c r="E5" s="5">
+        <v>179097231</v>
+      </c>
+      <c r="F5" s="5">
+        <v>574842587</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="6">
+        <f>C5/C4 - 1</f>
+        <v>3.2506235946813122E-2</v>
+      </c>
+      <c r="D6" s="6">
+        <f>D5/D4 - 1</f>
+        <v>1.4789587110237701E-3</v>
+      </c>
+      <c r="E6" s="6">
+        <f>E5/E4 - 1</f>
+        <v>1.2776410781896175E-3</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" ref="D6:F6" si="0">F5/F4 - 1</f>
+        <v>7.0935753990086781E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/benchmark.xlsx
+++ b/docs/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITMO\FAMLINN\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1125236A-91BD-4CC2-8820-DDC22E7008DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8005C42-1273-4CA6-A9F7-7F10B148C59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
   <si>
     <t>№</t>
   </si>
@@ -200,14 +200,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -216,9 +213,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:G50"/>
+  <dimension ref="C3:M58"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -512,18 +513,23 @@
     <col min="5" max="5" width="15.90625" customWidth="1"/>
     <col min="6" max="6" width="11.81640625" customWidth="1"/>
     <col min="7" max="7" width="20.6328125" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C3" s="4" t="s">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -540,7 +546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C5" s="2">
         <v>1</v>
       </c>
@@ -557,7 +563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C6" s="2">
         <v>2</v>
       </c>
@@ -574,7 +580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C7" s="2">
         <v>3</v>
       </c>
@@ -591,7 +597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C8" s="2">
         <v>4</v>
       </c>
@@ -608,7 +614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C9" s="2">
         <v>5</v>
       </c>
@@ -625,7 +631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C10" s="2">
         <v>6</v>
       </c>
@@ -642,7 +648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
@@ -663,7 +669,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
@@ -684,7 +690,7 @@
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
@@ -701,16 +707,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C15" s="4" t="s">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C16" s="2" t="s">
         <v>0</v>
       </c>
@@ -889,13 +895,13 @@
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C29" s="2" t="s">
@@ -1076,13 +1082,13 @@
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C41" s="2" t="s">
@@ -1260,6 +1266,105 @@
       </c>
       <c r="G50" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C54" s="1"/>
+      <c r="D54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C55" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2">
+        <f>D11</f>
+        <v>28.166666666666668</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" ref="E55:G55" si="8">E11</f>
+        <v>72.833333333333329</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="8"/>
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="G55" s="2">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2">
+        <f>D23</f>
+        <v>282.33333333333331</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" ref="E56:G56" si="9">E23</f>
+        <v>1063.1666666666667</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="9"/>
+        <v>79</v>
+      </c>
+      <c r="G56" s="2">
+        <f t="shared" si="9"/>
+        <v>261.66666666666669</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="2">
+        <f>D36</f>
+        <v>301</v>
+      </c>
+      <c r="E57" s="2">
+        <f t="shared" ref="E57:G57" si="10">E36</f>
+        <v>6053.333333333333</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="10"/>
+        <v>461</v>
+      </c>
+      <c r="G57" s="2">
+        <f t="shared" si="10"/>
+        <v>288.5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="2">
+        <f>D48</f>
+        <v>367.83333333333331</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" ref="E58:G58" si="11">E48</f>
+        <v>1412.6666666666667</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="11"/>
+        <v>3570.3333333333335</v>
+      </c>
+      <c r="G58" s="2">
+        <f t="shared" si="11"/>
+        <v>412.33333333333331</v>
       </c>
     </row>
   </sheetData>
@@ -1278,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF52FE3B-320D-4CA1-A61D-CE622A9E1329}">
   <dimension ref="B2:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1301,17 +1406,17 @@
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="8"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1319,16 +1424,16 @@
       <c r="B4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>252167</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>31123925</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>178868701</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>574801813</v>
       </c>
     </row>
@@ -1336,16 +1441,16 @@
       <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>260364</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>31169956</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>179097231</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>574842587</v>
       </c>
     </row>
@@ -1353,20 +1458,20 @@
       <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <f>C5/C4 - 1</f>
         <v>3.2506235946813122E-2</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <f>D5/D4 - 1</f>
         <v>1.4789587110237701E-3</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <f>E5/E4 - 1</f>
         <v>1.2776410781896175E-3</v>
       </c>
-      <c r="F6" s="6">
-        <f t="shared" ref="D6:F6" si="0">F5/F4 - 1</f>
+      <c r="F6" s="5">
+        <f t="shared" ref="F6" si="0">F5/F4 - 1</f>
         <v>7.0935753990086781E-5</v>
       </c>
     </row>

--- a/docs/benchmark.xlsx
+++ b/docs/benchmark.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITMO\FAMLINN\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8005C42-1273-4CA6-A9F7-7F10B148C59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B04EC52-DE32-4A25-94F5-DEF1F9F2F026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
   <si>
     <t>№</t>
   </si>
@@ -141,6 +142,24 @@
   </si>
   <si>
     <t>Соотношение занимаемой памяти</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Calc</t>
+  </si>
+  <si>
+    <t>ONNX Unet</t>
+  </si>
+  <si>
+    <t>ONNX ResNet</t>
+  </si>
+  <si>
+    <t>Вычисление Net</t>
   </si>
 </sst>
 </file>
@@ -213,13 +232,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -517,13 +536,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -708,13 +727,13 @@
       </c>
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C16" s="2" t="s">
@@ -895,13 +914,13 @@
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C29" s="2" t="s">
@@ -1082,13 +1101,13 @@
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C41" s="2" t="s">
@@ -1271,7 +1290,7 @@
     <row r="54" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C54" s="1"/>
       <c r="D54" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>4</v>
@@ -1284,7 +1303,7 @@
       </c>
     </row>
     <row r="55" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D55" s="2">
@@ -1380,6 +1399,308 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F434443F-7303-4D45-825A-633F2FD3F512}">
+  <dimension ref="C2:L12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="I2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1182</v>
+      </c>
+      <c r="E4" s="2">
+        <v>276</v>
+      </c>
+      <c r="F4" s="2">
+        <v>112</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>9580</v>
+      </c>
+      <c r="K4" s="2">
+        <v>595</v>
+      </c>
+      <c r="L4" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1241</v>
+      </c>
+      <c r="E5" s="2">
+        <v>267</v>
+      </c>
+      <c r="F5" s="2">
+        <v>104</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>10672</v>
+      </c>
+      <c r="K5" s="2">
+        <v>792</v>
+      </c>
+      <c r="L5" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1419</v>
+      </c>
+      <c r="E6" s="2">
+        <v>280</v>
+      </c>
+      <c r="F6" s="2">
+        <v>129</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>10731</v>
+      </c>
+      <c r="K6" s="2">
+        <v>862</v>
+      </c>
+      <c r="L6" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1207</v>
+      </c>
+      <c r="E7" s="2">
+        <v>290</v>
+      </c>
+      <c r="F7" s="2">
+        <v>110</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+      <c r="J7" s="2">
+        <v>9013</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1252</v>
+      </c>
+      <c r="L7" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1342</v>
+      </c>
+      <c r="E8" s="2">
+        <v>314</v>
+      </c>
+      <c r="F8" s="2">
+        <v>135</v>
+      </c>
+      <c r="I8" s="1">
+        <v>5</v>
+      </c>
+      <c r="J8" s="2">
+        <v>10150</v>
+      </c>
+      <c r="K8" s="2">
+        <v>660</v>
+      </c>
+      <c r="L8" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1218</v>
+      </c>
+      <c r="E9" s="2">
+        <v>253</v>
+      </c>
+      <c r="F9" s="2">
+        <v>106</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6</v>
+      </c>
+      <c r="J9" s="2">
+        <v>10178</v>
+      </c>
+      <c r="K9" s="2">
+        <v>697</v>
+      </c>
+      <c r="L9" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1271</v>
+      </c>
+      <c r="E10" s="2">
+        <v>273</v>
+      </c>
+      <c r="F10" s="2">
+        <v>129</v>
+      </c>
+      <c r="I10" s="1">
+        <v>7</v>
+      </c>
+      <c r="J10" s="2">
+        <v>10191</v>
+      </c>
+      <c r="K10" s="2">
+        <v>604</v>
+      </c>
+      <c r="L10" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2">
+        <f>AVERAGE(D4:D10)</f>
+        <v>1268.5714285714287</v>
+      </c>
+      <c r="E11" s="2">
+        <f>AVERAGE(E4:E10)</f>
+        <v>279</v>
+      </c>
+      <c r="F11" s="2">
+        <f>AVERAGE(F4:F10)</f>
+        <v>117.85714285714286</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="2">
+        <f>AVERAGE(J4:J10)</f>
+        <v>10073.571428571429</v>
+      </c>
+      <c r="K11" s="2">
+        <f>AVERAGE(K4:K10)</f>
+        <v>780.28571428571433</v>
+      </c>
+      <c r="L11" s="2">
+        <f>AVERAGE(L4:L10)</f>
+        <v>62.142857142857146</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2">
+        <f>_xlfn.STDEV.P(D4:D10)</f>
+        <v>78.038190545869725</v>
+      </c>
+      <c r="E12" s="2">
+        <f>_xlfn.STDEV.P(E4:E10)</f>
+        <v>17.776388834631177</v>
+      </c>
+      <c r="F12" s="2">
+        <f>_xlfn.STDEV.P(F4:F10)</f>
+        <v>11.776836483157114</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="2">
+        <f>_xlfn.STDEV.P(J4:J10)</f>
+        <v>559.2456289229159</v>
+      </c>
+      <c r="K12" s="2">
+        <f>_xlfn.STDEV.P(K4:K10)</f>
+        <v>212.51602580626664</v>
+      </c>
+      <c r="L12" s="2">
+        <f>_xlfn.STDEV.P(L4:L10)</f>
+        <v>12.264100589334145</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="I2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF52FE3B-320D-4CA1-A61D-CE622A9E1329}">
   <dimension ref="B2:F6"/>
   <sheetViews>
@@ -1397,13 +1718,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7"/>

--- a/docs/benchmark.xlsx
+++ b/docs/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITMO\FAMLINN\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B04EC52-DE32-4A25-94F5-DEF1F9F2F026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB57DED-52F4-4474-A6EA-38EF8AFCC767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="69">
   <si>
     <t>№</t>
   </si>
@@ -141,9 +141,6 @@
     <t>Ratio</t>
   </si>
   <si>
-    <t>Соотношение занимаемой памяти</t>
-  </si>
-  <si>
     <t>Load</t>
   </si>
   <si>
@@ -159,14 +156,128 @@
     <t>ONNX ResNet</t>
   </si>
   <si>
-    <t>Вычисление Net</t>
+    <t>Загрузка</t>
+  </si>
+  <si>
+    <t>Исплолнение</t>
+  </si>
+  <si>
+    <t>Unet</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1270 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 80</t>
+    </r>
+  </si>
+  <si>
+    <t>120 ± 12</t>
+  </si>
+  <si>
+    <t>280 ± 20</t>
+  </si>
+  <si>
+    <t>10000 ± 560</t>
+  </si>
+  <si>
+    <t>780 ± 200</t>
+  </si>
+  <si>
+    <t>62 ± 12</t>
+  </si>
+  <si>
+    <t>ONNX сравнение (миллисекунды)</t>
+  </si>
+  <si>
+    <t>Соотношение занимаемой памяти (байт)</t>
+  </si>
+  <si>
+    <t>Вычисление сети</t>
+  </si>
+  <si>
+    <t>Вычисление оригинала</t>
+  </si>
+  <si>
+    <t>Замеры времени исполнения основных действий (миллисекунды)</t>
+  </si>
+  <si>
+    <t>28 ± 50</t>
+  </si>
+  <si>
+    <t>280 ± 25</t>
+  </si>
+  <si>
+    <t>300 ± 20</t>
+  </si>
+  <si>
+    <t>370 ± 10</t>
+  </si>
+  <si>
+    <t>1400 ± 100</t>
+  </si>
+  <si>
+    <t>6000 ± 500</t>
+  </si>
+  <si>
+    <t>1100 ± 100</t>
+  </si>
+  <si>
+    <t>75 ± 25</t>
+  </si>
+  <si>
+    <t>10 ± 1</t>
+  </si>
+  <si>
+    <t>1 ± 1</t>
+  </si>
+  <si>
+    <t>270 ± 30</t>
+  </si>
+  <si>
+    <t>290 ± 30</t>
+  </si>
+  <si>
+    <t>410 ± 90</t>
+  </si>
+  <si>
+    <t>80 ± 5</t>
+  </si>
+  <si>
+    <t>460 ± 60</t>
+  </si>
+  <si>
+    <t>3500 ± 500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$₽-419]_-;\-* #,##0.00\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0_);\(0\)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +294,20 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -192,7 +317,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -215,23 +340,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -239,8 +367,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -519,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:M58"/>
+  <dimension ref="C3:M66"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -536,13 +681,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -727,13 +872,13 @@
       </c>
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C16" s="2" t="s">
@@ -914,13 +1059,13 @@
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C29" s="2" t="s">
@@ -1101,13 +1246,13 @@
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C41" s="2" t="s">
@@ -1287,10 +1432,19 @@
         <v>22</v>
       </c>
     </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C53" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+    </row>
     <row r="54" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C54" s="1"/>
       <c r="D54" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>4</v>
@@ -1303,22 +1457,22 @@
       </c>
     </row>
     <row r="55" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="15">
         <f>D11</f>
         <v>28.166666666666668</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="15">
         <f t="shared" ref="E55:G55" si="8">E11</f>
         <v>72.833333333333329</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="15">
         <f t="shared" si="8"/>
         <v>9.1666666666666661</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="15">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
@@ -1327,19 +1481,19 @@
       <c r="C56" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="15">
         <f>D23</f>
         <v>282.33333333333331</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="15">
         <f t="shared" ref="E56:G56" si="9">E23</f>
         <v>1063.1666666666667</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="15">
         <f t="shared" si="9"/>
         <v>79</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56" s="15">
         <f t="shared" si="9"/>
         <v>261.66666666666669</v>
       </c>
@@ -1348,19 +1502,19 @@
       <c r="C57" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="15">
         <f>D36</f>
         <v>301</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="15">
         <f t="shared" ref="E57:G57" si="10">E36</f>
         <v>6053.333333333333</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="15">
         <f t="shared" si="10"/>
         <v>461</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="15">
         <f t="shared" si="10"/>
         <v>288.5</v>
       </c>
@@ -1369,29 +1523,123 @@
       <c r="C58" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="15">
         <f>D48</f>
         <v>367.83333333333331</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="15">
         <f t="shared" ref="E58:G58" si="11">E48</f>
         <v>1412.6666666666667</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="15">
         <f t="shared" si="11"/>
         <v>3570.3333333333335</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58" s="15">
         <f t="shared" si="11"/>
         <v>412.33333333333331</v>
       </c>
     </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C61" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C62" s="1"/>
+      <c r="D62" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C63" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>53</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="C61:G61"/>
     <mergeCell ref="C40:G40"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C53:G53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1400,51 +1648,86 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F434443F-7303-4D45-825A-633F2FD3F512}">
-  <dimension ref="C2:L12"/>
+  <dimension ref="C1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="15" max="15" width="11.7265625" customWidth="1"/>
+    <col min="16" max="16" width="8.81640625" customWidth="1"/>
+    <col min="17" max="17" width="13.90625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C2" s="10" t="s">
+    <row r="1" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="N1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+    </row>
+    <row r="2" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="I2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="Q2" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="N3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C4" s="1">
         <v>1</v>
       </c>
@@ -1469,8 +1752,20 @@
       <c r="L4" s="2">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="N4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C5" s="1">
         <v>2</v>
       </c>
@@ -1496,7 +1791,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C6" s="1">
         <v>3</v>
       </c>
@@ -1522,7 +1817,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C7" s="1">
         <v>4</v>
       </c>
@@ -1548,7 +1843,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C8" s="1">
         <v>5</v>
       </c>
@@ -1574,7 +1869,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C9" s="1">
         <v>6</v>
       </c>
@@ -1600,7 +1895,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C10" s="1">
         <v>7</v>
       </c>
@@ -1626,7 +1921,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1658,7 +1953,7 @@
         <v>62.142857142857146</v>
       </c>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1691,9 +1986,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="I2:L2"/>
+    <mergeCell ref="N1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1705,7 +2001,7 @@
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F6"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1718,80 +2014,80 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="B2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="7"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="14">
         <v>252167</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="14">
         <v>31123925</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="14">
         <v>178868701</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="14">
         <v>574801813</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="14">
         <v>260364</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="14">
         <v>31169956</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="14">
         <v>179097231</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="14">
         <v>574842587</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <f>C5/C4 - 1</f>
         <v>3.2506235946813122E-2</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <f>D5/D4 - 1</f>
         <v>1.4789587110237701E-3</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <f>E5/E4 - 1</f>
         <v>1.2776410781896175E-3</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <f t="shared" ref="F6" si="0">F5/F4 - 1</f>
         <v>7.0935753990086781E-5</v>
       </c>

--- a/docs/benchmark.xlsx
+++ b/docs/benchmark.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITMO\FAMLINN\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB57DED-52F4-4474-A6EA-38EF8AFCC767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98785564-A870-412A-A7BE-03D500E8332C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -275,7 +275,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$₽-419]_-;\-* #,##0.00\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -317,7 +317,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -340,49 +340,37 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -666,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61:G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -681,13 +669,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -872,13 +860,13 @@
       </c>
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C16" s="2" t="s">
@@ -1059,13 +1047,13 @@
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C29" s="2" t="s">
@@ -1246,13 +1234,13 @@
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C41" s="2" t="s">
@@ -1433,13 +1421,13 @@
       </c>
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
     </row>
     <row r="54" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C54" s="1"/>
@@ -1460,19 +1448,19 @@
       <c r="C55" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D55" s="11">
         <f>D11</f>
         <v>28.166666666666668</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E55" s="11">
         <f t="shared" ref="E55:G55" si="8">E11</f>
         <v>72.833333333333329</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F55" s="11">
         <f t="shared" si="8"/>
         <v>9.1666666666666661</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G55" s="11">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
@@ -1481,19 +1469,19 @@
       <c r="C56" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D56" s="11">
         <f>D23</f>
         <v>282.33333333333331</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E56" s="11">
         <f t="shared" ref="E56:G56" si="9">E23</f>
         <v>1063.1666666666667</v>
       </c>
-      <c r="F56" s="15">
+      <c r="F56" s="11">
         <f t="shared" si="9"/>
         <v>79</v>
       </c>
-      <c r="G56" s="15">
+      <c r="G56" s="11">
         <f t="shared" si="9"/>
         <v>261.66666666666669</v>
       </c>
@@ -1502,19 +1490,19 @@
       <c r="C57" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="11">
         <f>D36</f>
         <v>301</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E57" s="11">
         <f t="shared" ref="E57:G57" si="10">E36</f>
         <v>6053.333333333333</v>
       </c>
-      <c r="F57" s="15">
+      <c r="F57" s="11">
         <f t="shared" si="10"/>
         <v>461</v>
       </c>
-      <c r="G57" s="15">
+      <c r="G57" s="11">
         <f t="shared" si="10"/>
         <v>288.5</v>
       </c>
@@ -1523,31 +1511,31 @@
       <c r="C58" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D58" s="11">
         <f>D48</f>
         <v>367.83333333333331</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E58" s="11">
         <f t="shared" ref="E58:G58" si="11">E48</f>
         <v>1412.6666666666667</v>
       </c>
-      <c r="F58" s="15">
+      <c r="F58" s="11">
         <f t="shared" si="11"/>
         <v>3570.3333333333335</v>
       </c>
-      <c r="G58" s="15">
+      <c r="G58" s="11">
         <f t="shared" si="11"/>
         <v>412.33333333333331</v>
       </c>
     </row>
     <row r="61" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
     </row>
     <row r="62" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C62" s="1"/>
@@ -1571,13 +1559,13 @@
       <c r="D63" t="s">
         <v>53</v>
       </c>
-      <c r="E63" s="15" t="s">
+      <c r="E63" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F63" s="15" t="s">
+      <c r="F63" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G63" s="15" t="s">
+      <c r="G63" s="11" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1585,16 +1573,16 @@
       <c r="C64" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="15" t="s">
+      <c r="D64" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E64" s="15" t="s">
+      <c r="E64" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F64" s="15" t="s">
+      <c r="F64" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G64" s="15" t="s">
+      <c r="G64" s="11" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1602,16 +1590,16 @@
       <c r="C65" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="15" t="s">
+      <c r="D65" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E65" s="15" t="s">
+      <c r="E65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F65" s="15" t="s">
+      <c r="F65" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G65" s="15" t="s">
+      <c r="G65" s="11" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1619,16 +1607,16 @@
       <c r="C66" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D66" s="15" t="s">
+      <c r="D66" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E66" s="15" t="s">
+      <c r="E66" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F66" s="15" t="s">
+      <c r="F66" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G66" s="15" t="s">
+      <c r="G66" s="11" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1651,7 +1639,7 @@
   <dimension ref="C1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="N1" sqref="N1:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1662,34 +1650,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
     </row>
     <row r="2" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="I2" s="7" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="I2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1714,16 +1702,16 @@
       <c r="L3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1752,16 +1740,16 @@
       <c r="L4" s="2">
         <v>54</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="6" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2001,7 +1989,7 @@
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="B2" sqref="B2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2014,65 +2002,65 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="12"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="10">
         <v>252167</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="10">
         <v>31123925</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="10">
         <v>178868701</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="10">
         <v>574801813</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="10">
         <v>260364</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="10">
         <v>31169956</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="10">
         <v>179097231</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="10">
         <v>574842587</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="4">
